--- a/hosts_prep.xlsx
+++ b/hosts_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbulai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E358B-A348-413E-9FE6-E7AA9BE9E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F1842-18FA-432F-B63A-5E4FB80DA44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{04B7FADD-3AFF-42A6-A330-467D03245041}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hostname</t>
   </si>
@@ -41,10 +41,16 @@
     <t>inventory</t>
   </si>
   <si>
-    <t>ip1</t>
+    <t>192.168.0.100</t>
   </si>
   <si>
-    <t>subnet1</t>
+    <t>gc-control-node</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>subnet</t>
   </si>
 </sst>
 </file>
@@ -456,25 +462,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>24</v>
+      </c>
       <c r="D2" s="4" t="str">
-        <f>CONCATENATE(A2," ","server_hostname=""",B2,""""," ","server_ip_1=""",A2,""""," ","subnet_1=""",C2,"""")</f>
-        <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
+        <f t="shared" ref="D2:D23" si="0">CONCATENATE(A2," ","server_hostname=""",B2,""""," ","server_ip_1=""",A2,""""," ","subnet_1=""",C2,"""")</f>
+        <v>192.168.0.100 server_hostname="gc-control-node" server_ip_1="192.168.0.100" subnet_1="24"</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +494,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="str">
-        <f>CONCATENATE(A3," ","server_hostname=""",B3,""""," ","server_ip_1=""",A3,""""," ","subnet_1=""",C3,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -491,7 +503,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="str">
-        <f>CONCATENATE(A4," ","server_hostname=""",B4,""""," ","server_ip_1=""",A4,""""," ","subnet_1=""",C4,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -500,7 +512,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="str">
-        <f>CONCATENATE(A5," ","server_hostname=""",B5,""""," ","server_ip_1=""",A5,""""," ","subnet_1=""",C5,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -509,7 +521,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="str">
-        <f>CONCATENATE(A6," ","server_hostname=""",B6,""""," ","server_ip_1=""",A6,""""," ","subnet_1=""",C6,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -518,7 +530,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="str">
-        <f>CONCATENATE(A7," ","server_hostname=""",B7,""""," ","server_ip_1=""",A7,""""," ","subnet_1=""",C7,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -527,7 +539,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="str">
-        <f>CONCATENATE(A8," ","server_hostname=""",B8,""""," ","server_ip_1=""",A8,""""," ","subnet_1=""",C8,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -536,7 +548,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="str">
-        <f>CONCATENATE(A9," ","server_hostname=""",B9,""""," ","server_ip_1=""",A9,""""," ","subnet_1=""",C9,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -545,7 +557,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="str">
-        <f>CONCATENATE(A10," ","server_hostname=""",B10,""""," ","server_ip_1=""",A10,""""," ","subnet_1=""",C10,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -554,7 +566,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="str">
-        <f>CONCATENATE(A11," ","server_hostname=""",B11,""""," ","server_ip_1=""",A11,""""," ","subnet_1=""",C11,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -563,7 +575,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="str">
-        <f>CONCATENATE(A12," ","server_hostname=""",B12,""""," ","server_ip_1=""",A12,""""," ","subnet_1=""",C12,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -572,7 +584,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="str">
-        <f>CONCATENATE(A13," ","server_hostname=""",B13,""""," ","server_ip_1=""",A13,""""," ","subnet_1=""",C13,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -581,7 +593,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="str">
-        <f>CONCATENATE(A14," ","server_hostname=""",B14,""""," ","server_ip_1=""",A14,""""," ","subnet_1=""",C14,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -590,7 +602,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="str">
-        <f>CONCATENATE(A15," ","server_hostname=""",B15,""""," ","server_ip_1=""",A15,""""," ","subnet_1=""",C15,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -599,7 +611,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="str">
-        <f>CONCATENATE(A16," ","server_hostname=""",B16,""""," ","server_ip_1=""",A16,""""," ","subnet_1=""",C16,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -608,7 +620,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="str">
-        <f>CONCATENATE(A17," ","server_hostname=""",B17,""""," ","server_ip_1=""",A17,""""," ","subnet_1=""",C17,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -617,7 +629,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="str">
-        <f>CONCATENATE(A18," ","server_hostname=""",B18,""""," ","server_ip_1=""",A18,""""," ","subnet_1=""",C18,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -626,7 +638,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="str">
-        <f>CONCATENATE(A19," ","server_hostname=""",B19,""""," ","server_ip_1=""",A19,""""," ","subnet_1=""",C19,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -635,7 +647,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="str">
-        <f>CONCATENATE(A20," ","server_hostname=""",B20,""""," ","server_ip_1=""",A20,""""," ","subnet_1=""",C20,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -644,7 +656,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="str">
-        <f>CONCATENATE(A21," ","server_hostname=""",B21,""""," ","server_ip_1=""",A21,""""," ","subnet_1=""",C21,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -653,7 +665,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="str">
-        <f>CONCATENATE(A22," ","server_hostname=""",B22,""""," ","server_ip_1=""",A22,""""," ","subnet_1=""",C22,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -662,7 +674,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="str">
-        <f>CONCATENATE(A23," ","server_hostname=""",B23,""""," ","server_ip_1=""",A23,""""," ","subnet_1=""",C23,"""")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -671,7 +683,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="str">
-        <f t="shared" ref="D24:D42" si="0">CONCATENATE(A24," ","server_hostname=""",B24,""""," ","server_ip_1=""",A24,""""," ","subnet_1=""",C24,"""")</f>
+        <f t="shared" ref="D24:D42" si="1">CONCATENATE(A24," ","server_hostname=""",B24,""""," ","server_ip_1=""",A24,""""," ","subnet_1=""",C24,"""")</f>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -680,7 +692,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -689,7 +701,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -698,7 +710,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -707,7 +719,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -716,7 +728,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -725,7 +737,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -734,7 +746,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -743,7 +755,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -752,7 +764,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -761,7 +773,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -770,7 +782,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -779,7 +791,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -788,7 +800,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -797,7 +809,7 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -806,7 +818,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -815,7 +827,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -824,7 +836,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
@@ -833,7 +845,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> server_hostname="" server_ip_1="" subnet_1=""</v>
       </c>
     </row>
